--- a/Costeo_septiembre.xlsx
+++ b/Costeo_septiembre.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo Marazzo\Documents\sistema_gestion_docente\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -218,7 +213,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -325,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -333,6 +328,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,7 +460,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -516,7 +512,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -710,7 +706,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -718,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X43"/>
+  <dimension ref="A1:X44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -732,32 +728,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
     </row>
     <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -847,7 +843,7 @@
         <v>177</v>
       </c>
       <c r="E3" s="2">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>27</v>
@@ -877,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="O3" s="4">
-        <v>9749.73</v>
+        <v>15439.73</v>
       </c>
       <c r="P3" s="4">
         <v>0</v>
@@ -1099,7 +1095,7 @@
         <v>4</v>
       </c>
       <c r="O6">
-        <v>21585</v>
+        <v>21585.31</v>
       </c>
       <c r="P6" s="4">
         <v>1.3333333333333299</v>
@@ -1395,7 +1391,7 @@
         <v>4</v>
       </c>
       <c r="O10">
-        <v>50387.44</v>
+        <v>38287.440000000002</v>
       </c>
       <c r="P10" s="4">
         <v>3.3333333333333299</v>
@@ -1691,7 +1687,7 @@
         <v>4</v>
       </c>
       <c r="O14">
-        <v>28191.09</v>
+        <v>32530.12</v>
       </c>
       <c r="P14" s="4">
         <v>5.3333333333333304</v>
@@ -2061,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="O19">
-        <v>55869.65</v>
+        <v>58291.75</v>
       </c>
       <c r="P19" s="4">
         <v>7.8333333333333304</v>
@@ -2135,7 +2131,7 @@
         <v>4</v>
       </c>
       <c r="O20">
-        <v>13967.2</v>
+        <v>14582.81</v>
       </c>
       <c r="P20" s="4">
         <v>8.3333333333333304</v>
@@ -3171,7 +3167,7 @@
         <v>4</v>
       </c>
       <c r="O34">
-        <v>51256.56</v>
+        <v>12256.56</v>
       </c>
       <c r="P34" s="4">
         <v>15.3333333333333</v>
@@ -3319,7 +3315,7 @@
         <v>4</v>
       </c>
       <c r="O36">
-        <v>4000</v>
+        <v>7234.25</v>
       </c>
       <c r="P36" s="4">
         <v>16.3333333333333</v>
@@ -3393,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="O37">
-        <v>4000</v>
+        <v>6842.1</v>
       </c>
       <c r="P37" s="4">
         <v>16.8333333333333</v>
@@ -3467,7 +3463,7 @@
         <v>4</v>
       </c>
       <c r="O38">
-        <v>4000</v>
+        <v>9345.1200000000008</v>
       </c>
       <c r="P38" s="4">
         <v>17.3333333333333</v>
@@ -3541,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="O39">
-        <v>4000</v>
+        <v>2852.56</v>
       </c>
       <c r="P39" s="4">
         <v>17.8333333333333</v>
@@ -3615,7 +3611,7 @@
         <v>4</v>
       </c>
       <c r="O40">
-        <v>4000</v>
+        <v>8520.24</v>
       </c>
       <c r="P40" s="4">
         <v>18.3333333333333</v>
@@ -3689,7 +3685,7 @@
         <v>4</v>
       </c>
       <c r="O41">
-        <v>4000</v>
+        <v>3007.29</v>
       </c>
       <c r="P41" s="4">
         <v>18.8333333333333</v>
@@ -3763,7 +3759,7 @@
         <v>4</v>
       </c>
       <c r="O42">
-        <v>4000</v>
+        <v>16802.98</v>
       </c>
       <c r="P42" s="4">
         <v>19.3333333333333</v>
@@ -3837,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="O43">
-        <v>4000</v>
+        <v>1582.76</v>
       </c>
       <c r="P43" s="4">
         <v>19.8333333333333</v>
@@ -3866,6 +3862,9 @@
       <c r="X43" s="4">
         <v>1</v>
       </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="O44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
